--- a/Product_List.xlsx
+++ b/Product_List.xlsx
@@ -29,13 +29,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="256">
   <si>
-    <t>Plant Name</t>
+    <t>Scientific Plant Name</t>
   </si>
   <si>
     <t>Disease</t>
   </si>
   <si>
-    <t>Scientific Name</t>
+    <t>Scientific_Disease Name</t>
   </si>
   <si>
     <t>Product Link</t>
@@ -1992,7 +1992,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
